--- a/data/trans_orig/P1802_2016_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1802_2016_2023-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>126225</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>105819</v>
+        <v>107497</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>146539</v>
+        <v>146073</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1673307037140295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1402783132282698</v>
+        <v>0.1425039736676884</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1942595843589433</v>
+        <v>0.1936420925384132</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>207</v>
@@ -763,19 +763,19 @@
         <v>231757</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>206173</v>
+        <v>203719</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>260424</v>
+        <v>262046</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2330008060322948</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2072797558620792</v>
+        <v>0.2048125347540177</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2618222655993481</v>
+        <v>0.2634530119140291</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>336</v>
@@ -784,19 +784,19 @@
         <v>357982</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>321737</v>
+        <v>323470</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>391106</v>
+        <v>394751</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2046772878977562</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1839538509400628</v>
+        <v>0.1849449072300769</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2236159141541296</v>
+        <v>0.2257001790798249</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>628122</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>607808</v>
+        <v>608274</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>648528</v>
+        <v>646850</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8326692962859705</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8057404156410567</v>
+        <v>0.8063579074615868</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8597216867717302</v>
+        <v>0.8574960263323116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>685</v>
@@ -834,19 +834,19 @@
         <v>762903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>734236</v>
+        <v>732614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>788487</v>
+        <v>790941</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7669991939677052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7381777344006519</v>
+        <v>0.7365469880859706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7927202441379209</v>
+        <v>0.7951874652459818</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1318</v>
@@ -855,19 +855,19 @@
         <v>1391025</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1357901</v>
+        <v>1354256</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1427270</v>
+        <v>1425537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7953227121022437</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7763840858458705</v>
+        <v>0.7742998209201751</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8160461490599372</v>
+        <v>0.8150550927699232</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>283147</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>254728</v>
+        <v>251908</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>314126</v>
+        <v>316786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1363653864112941</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1226784558220293</v>
+        <v>0.1213206648986418</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1512850967961859</v>
+        <v>0.1525660715241883</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>324</v>
@@ -980,19 +980,19 @@
         <v>344776</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>312959</v>
+        <v>312785</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>378254</v>
+        <v>383823</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.173402639562185</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1574001916420659</v>
+        <v>0.1573126383904146</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1902397559604541</v>
+        <v>0.193040757987702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>587</v>
@@ -1001,19 +1001,19 @@
         <v>627924</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>586060</v>
+        <v>584523</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>680204</v>
+        <v>671854</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1544826998786773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.144183374939536</v>
+        <v>0.1438052933402211</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1673447177459718</v>
+        <v>0.1652905255724806</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1793238</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1762259</v>
+        <v>1759599</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1821657</v>
+        <v>1824477</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8636346135887059</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.848714903203814</v>
+        <v>0.8474339284758117</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8773215441779707</v>
+        <v>0.8786793351013582</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1584</v>
@@ -1051,19 +1051,19 @@
         <v>1643524</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1610046</v>
+        <v>1604477</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1675341</v>
+        <v>1675515</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.826597360437815</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8097602440395458</v>
+        <v>0.806959242012298</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8425998083579341</v>
+        <v>0.8426873616095854</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3273</v>
@@ -1072,19 +1072,19 @@
         <v>3436761</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3384481</v>
+        <v>3392831</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3478625</v>
+        <v>3480162</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8455173001213228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8326552822540283</v>
+        <v>0.8347094744275191</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.855816625060464</v>
+        <v>0.8561947066597788</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>73714</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57312</v>
+        <v>58066</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91319</v>
+        <v>91594</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1347881254855756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1047962716127908</v>
+        <v>0.1061753706058088</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1669791169728253</v>
+        <v>0.1674836172595696</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -1197,19 +1197,19 @@
         <v>90831</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75479</v>
+        <v>72863</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>111383</v>
+        <v>110608</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1654057740512331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1374496677314094</v>
+        <v>0.13268577141644</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2028322308769247</v>
+        <v>0.2014206149864628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>148</v>
@@ -1218,19 +1218,19 @@
         <v>164545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>143494</v>
+        <v>140064</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192390</v>
+        <v>191169</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1501284346641371</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1309220700314413</v>
+        <v>0.1277925517545571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1755335670858706</v>
+        <v>0.1744199066747348</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>473172</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>455567</v>
+        <v>455292</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>489574</v>
+        <v>488820</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8652118745144245</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8330208830271748</v>
+        <v>0.8325163827404305</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8952037283872092</v>
+        <v>0.8938246293941913</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>442</v>
@@ -1268,19 +1268,19 @@
         <v>458309</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>437757</v>
+        <v>438532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473661</v>
+        <v>476277</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.834594225948767</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7971677691230755</v>
+        <v>0.7985793850135371</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8625503322685907</v>
+        <v>0.86731422858356</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>879</v>
@@ -1289,19 +1289,19 @@
         <v>931482</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>903637</v>
+        <v>904858</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>952533</v>
+        <v>955963</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8498715653358628</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8244664329141295</v>
+        <v>0.8255800933252652</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8690779299685587</v>
+        <v>0.8722074482454431</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>483086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>443532</v>
+        <v>443277</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>523496</v>
+        <v>525118</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1430257032079691</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1313149304924021</v>
+        <v>0.1312393991386751</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1549895903928998</v>
+        <v>0.1554700529926759</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>615</v>
@@ -1414,19 +1414,19 @@
         <v>667364</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>620493</v>
+        <v>619066</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>712026</v>
+        <v>712420</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1889425486378709</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1756725971194917</v>
+        <v>0.1752685042707289</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2015872490768398</v>
+        <v>0.2016988207990416</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1071</v>
@@ -1435,19 +1435,19 @@
         <v>1150450</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1091874</v>
+        <v>1088886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1208841</v>
+        <v>1214606</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1664974142504582</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1580200150740474</v>
+        <v>0.1575876669501945</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1749478888773401</v>
+        <v>0.1757823224474137</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>2894532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2854122</v>
+        <v>2852500</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2934086</v>
+        <v>2934341</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8569742967920309</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8450104096071002</v>
+        <v>0.8445299470073241</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8686850695075978</v>
+        <v>0.8687606008613249</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2711</v>
@@ -1485,19 +1485,19 @@
         <v>2864736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2820074</v>
+        <v>2819680</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2911607</v>
+        <v>2913034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8110574513621291</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7984127509231602</v>
+        <v>0.7983011792009584</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8243274028805087</v>
+        <v>0.8247314957292711</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5470</v>
@@ -1506,19 +1506,19 @@
         <v>5759268</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5700877</v>
+        <v>5695112</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5817844</v>
+        <v>5820832</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8335025857495418</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.82505211112266</v>
+        <v>0.8242176775525863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8419799849259526</v>
+        <v>0.8424123330498056</v>
       </c>
     </row>
     <row r="15">
@@ -1849,19 +1849,19 @@
         <v>106286</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89577</v>
+        <v>90377</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>122820</v>
+        <v>124685</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1837174972105215</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1548357143749202</v>
+        <v>0.1562182714763468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2122973757582949</v>
+        <v>0.2155211685525936</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>301</v>
@@ -1870,19 +1870,19 @@
         <v>166267</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149403</v>
+        <v>148966</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>183351</v>
+        <v>185066</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2024088836677018</v>
+        <v>0.2024088836677019</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.181879028682758</v>
+        <v>0.181346738268308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2232058420553744</v>
+        <v>0.2252934678245285</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>435</v>
@@ -1891,19 +1891,19 @@
         <v>272553</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>249531</v>
+        <v>248179</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>295292</v>
+        <v>299072</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1946847840033624</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1782401292956411</v>
+        <v>0.1772745354685803</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2109271528932152</v>
+        <v>0.2136271340863212</v>
       </c>
     </row>
     <row r="5">
@@ -1920,19 +1920,19 @@
         <v>472243</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>455709</v>
+        <v>453844</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>488952</v>
+        <v>488152</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8162825027894786</v>
+        <v>0.8162825027894787</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7877026242417051</v>
+        <v>0.7844788314474064</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8451642856250795</v>
+        <v>0.8437817285236532</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1125</v>
@@ -1941,19 +1941,19 @@
         <v>655175</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>638091</v>
+        <v>636376</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>672039</v>
+        <v>672476</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7975911163322981</v>
+        <v>0.7975911163322984</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7767941579446256</v>
+        <v>0.7747065321754715</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8181209713172419</v>
+        <v>0.8186532617316916</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1682</v>
@@ -1962,19 +1962,19 @@
         <v>1127418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1104679</v>
+        <v>1100899</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1150440</v>
+        <v>1151792</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8053152159966377</v>
+        <v>0.8053152159966375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7890728471067849</v>
+        <v>0.7863728659136788</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8217598707043589</v>
+        <v>0.8227254645314197</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>322741</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>286701</v>
+        <v>291013</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>361495</v>
+        <v>362892</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.144742017369263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1285786908543071</v>
+        <v>0.1305127545683594</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1621219866967461</v>
+        <v>0.1627485300363855</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>561</v>
@@ -2087,19 +2087,19 @@
         <v>381615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>350177</v>
+        <v>352504</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>412096</v>
+        <v>417454</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.175912130207829</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1614202327401402</v>
+        <v>0.1624928772473073</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.189962593452462</v>
+        <v>0.1924325012845863</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>880</v>
@@ -2108,19 +2108,19 @@
         <v>704356</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>666448</v>
+        <v>655420</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>759021</v>
+        <v>753117</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1601130234006981</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1514956650733175</v>
+        <v>0.1489889373682881</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1725393317538179</v>
+        <v>0.1711971170553164</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>1907029</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1868275</v>
+        <v>1866878</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1943069</v>
+        <v>1938757</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8552579826307369</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8378780133032538</v>
+        <v>0.8372514699636147</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.871421309145693</v>
+        <v>0.8694872454316406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2357</v>
@@ -2158,19 +2158,19 @@
         <v>1787736</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1757255</v>
+        <v>1751897</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1819174</v>
+        <v>1816847</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8240878697921709</v>
+        <v>0.824087869792171</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8100374065475379</v>
+        <v>0.8075674987154136</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8385797672598596</v>
+        <v>0.8375071227526926</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4029</v>
@@ -2179,19 +2179,19 @@
         <v>3694764</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3640099</v>
+        <v>3646003</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3732672</v>
+        <v>3743700</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.839886976599302</v>
+        <v>0.8398869765993019</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.827460668246182</v>
+        <v>0.8288028829446837</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8485043349266826</v>
+        <v>0.8510110626317119</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>105006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>85265</v>
+        <v>87552</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>125091</v>
+        <v>126864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1477479007731154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1199706267760424</v>
+        <v>0.1231882698365318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1760080871689692</v>
+        <v>0.1785027658966563</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>216</v>
@@ -2304,19 +2304,19 @@
         <v>150627</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>131127</v>
+        <v>132056</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169775</v>
+        <v>170049</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2051602403800944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1785994712962171</v>
+        <v>0.1798653891253655</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2312400096277887</v>
+        <v>0.2316127391235727</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>325</v>
@@ -2325,19 +2325,19 @@
         <v>255634</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>229317</v>
+        <v>229262</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>285130</v>
+        <v>285071</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1769205788957158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1587074444457246</v>
+        <v>0.1586692922207198</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1973346736888246</v>
+        <v>0.197293476707468</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>605707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>585622</v>
+        <v>583849</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>625448</v>
+        <v>623161</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8522520992268846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.823991912831031</v>
+        <v>0.8214972341033435</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8800293732239575</v>
+        <v>0.876811730163468</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>787</v>
@@ -2375,19 +2375,19 @@
         <v>583567</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>564419</v>
+        <v>564145</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>603067</v>
+        <v>602138</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7948397596199055</v>
+        <v>0.7948397596199056</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7687599903722112</v>
+        <v>0.7683872608764273</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8214005287037829</v>
+        <v>0.8201346108746345</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1358</v>
@@ -2396,19 +2396,19 @@
         <v>1189273</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1159777</v>
+        <v>1159836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1215590</v>
+        <v>1215645</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8230794211042842</v>
+        <v>0.8230794211042844</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8026653263111755</v>
+        <v>0.8027065232925316</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8412925555542754</v>
+        <v>0.84133070777928</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>534034</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>494227</v>
+        <v>492125</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>576688</v>
+        <v>581216</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1517567084631827</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1404446813410604</v>
+        <v>0.1398474189038871</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.163877859129559</v>
+        <v>0.1651644981880901</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1078</v>
@@ -2521,19 +2521,19 @@
         <v>698510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>659721</v>
+        <v>660803</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>742318</v>
+        <v>742477</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1875200466730893</v>
+        <v>0.1875200466730894</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1771069914824646</v>
+        <v>0.1773974768895665</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1992806143179028</v>
+        <v>0.1993234290688197</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1640</v>
@@ -2542,19 +2542,19 @@
         <v>1232543</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1174671</v>
+        <v>1172655</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1295629</v>
+        <v>1296099</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1701468222321299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1621578427555826</v>
+        <v>0.1618795435612659</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1788554828419961</v>
+        <v>0.1789204174039205</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>2984978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2942324</v>
+        <v>2937796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3024785</v>
+        <v>3026887</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8482432915368172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.836122140870441</v>
+        <v>0.8348355018119101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8595553186589397</v>
+        <v>0.8601525810961129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4269</v>
@@ -2592,19 +2592,19 @@
         <v>3026477</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2982669</v>
+        <v>2982510</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3065266</v>
+        <v>3064184</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8124799533269106</v>
+        <v>0.8124799533269107</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8007193856820972</v>
+        <v>0.8006765709311803</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8228930085175351</v>
+        <v>0.8226025231104336</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7069</v>
@@ -2613,19 +2613,19 @@
         <v>6011456</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5948370</v>
+        <v>5947900</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6069328</v>
+        <v>6071344</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8298531777678702</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8211445171580035</v>
+        <v>0.8210795825960799</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8378421572444171</v>
+        <v>0.8381204564387341</v>
       </c>
     </row>
     <row r="15">
